--- a/server/exmo.xlsx
+++ b/server/exmo.xlsx
@@ -10,20 +10,18 @@
     <sheet name="ETH" sheetId="1" r:id="rId1"/>
     <sheet name="XRP" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Поповнення" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>sell</t>
-  </si>
-  <si>
     <t>в місяць</t>
   </si>
   <si>
@@ -37,13 +35,37 @@
   </si>
   <si>
     <t>період між операціями</t>
+  </si>
+  <si>
+    <t>+ Внесок</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Дата/Час</t>
+  </si>
+  <si>
+    <t>Операція</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>Кількість</t>
+  </si>
+  <si>
+    <t>Ціна</t>
+  </si>
+  <si>
+    <t>Витрачено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,22 +73,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF272736"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,10 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -387,156 +392,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>305</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2">
         <v>2.168256E-2</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>6.6131808000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>315</v>
-      </c>
-      <c r="C2">
-        <f>C1*(1-0.002)</f>
-        <v>2.163919488E-2</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>6.8163463872000003</v>
-      </c>
-      <c r="E2">
-        <f>D2/D1</f>
-        <v>1.0307213114754099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>6.6131808000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C3">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D3">
         <f>B3*C3</f>
-        <v>5.72</v>
-      </c>
-      <c r="E3">
-        <f>D3*E2</f>
-        <v>5.8957259016393442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5.8079999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <f>D4/C4</f>
-        <v>291.29942300253879</v>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>223</v>
       </c>
       <c r="C4">
-        <f>C2+C3</f>
-        <v>4.3639194879999996E-2</v>
+        <v>2.293483E-2</v>
       </c>
       <c r="D4">
-        <f>D2+E3</f>
-        <v>12.712072288839344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f t="shared" ref="D4" si="0">B4*C4</f>
+        <v>5.1144670899999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C5">
-        <f>D5/B5</f>
-        <v>2.3255813953488372E-2</v>
+        <v>2.6425520000000001E-2</v>
       </c>
       <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f>D5*E2</f>
-        <v>5.1536065573770493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6">
-        <f>C5*(1-0.002)</f>
-        <v>2.3209302325581396E-2</v>
-      </c>
-      <c r="D6">
-        <f>E5+D4</f>
-        <v>17.865678846216394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="2">
-        <f>D6/C7</f>
-        <v>267.25625246702975</v>
-      </c>
+        <f t="shared" ref="D5" si="1">B5*C5</f>
+        <v>4.9679977600000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="C7">
-        <f>C6+C4</f>
-        <v>6.6848497205581392E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="E12" s="1">
-        <v>6.6131808000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="E13" s="1">
-        <v>5.8079999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="1">
-        <v>4.9999970999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15">
-        <f>SUM(E12:E14)</f>
-        <v>17.4211779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" s="1">
-        <v>17.984345699999999</v>
-      </c>
-      <c r="F16">
-        <f>E16/E15</f>
-        <v>1.0323266201190677</v>
+        <f>SUM(C2:C6)</f>
+        <v>9.3042910000000006E-2</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>22.503645649999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8">
+        <f>D8/C8</f>
+        <v>290.8173549341879</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(C7*(1-0.002),8)</f>
+        <v>9.2856820000000007E-2</v>
+      </c>
+      <c r="D8">
+        <f>D7*1.2</f>
+        <v>27.004374779999999</v>
       </c>
     </row>
   </sheetData>
@@ -547,171 +511,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0.38400000000000001</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>20.235189890000001</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>7.7703129177600001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.39</v>
-      </c>
-      <c r="C2">
-        <v>20.194719500000001</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>7.8759406050000011</v>
-      </c>
-      <c r="E2">
-        <f>D2/D1</f>
-        <v>1.0135937494870477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7.7703129177600001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.33</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C3">
-        <v>13.56875003</v>
+        <v>13.40123459</v>
       </c>
       <c r="D3">
         <f>B3*C3</f>
-        <v>4.4776875099</v>
-      </c>
-      <c r="E3">
-        <f>D3*E2</f>
-        <v>4.5385560721908629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>4.3420000071600002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.31</v>
+      </c>
       <c r="C4">
-        <f>C3*(1-0.002)</f>
-        <v>13.54161252994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>17.15230996</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>5.3172160876000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <f>D5/C5</f>
-        <v>0.36798596439510273</v>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.26600000000000001</v>
       </c>
       <c r="C5">
-        <f>C4+C2</f>
-        <v>33.736332029940002</v>
+        <v>18.917301989999999</v>
       </c>
       <c r="D5">
-        <f>D2+E3</f>
-        <v>12.414496677190865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.31</v>
-      </c>
-      <c r="C6">
-        <f>D6/B6</f>
-        <v>17.152309935483871</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.3172160799999997</v>
-      </c>
-      <c r="E6">
-        <f>D6*E2</f>
-        <v>5.3894969833600213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>5.03200232934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="C7">
-        <f>C6*(1-0.002)</f>
-        <v>17.118005315612901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
+        <f>SUM(C2:C6)</f>
+        <v>69.706036429999997</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>22.461531341859999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8">
         <f>D8/C8</f>
-        <v>0.35009784002441241</v>
+        <v>0.38745357933063856</v>
       </c>
       <c r="C8">
-        <f>C7+C5</f>
-        <v>50.854337345552906</v>
+        <f>ROUND(C7*(1-0.002),8)</f>
+        <v>69.566624360000006</v>
       </c>
       <c r="D8">
-        <f>E6+E3+D2</f>
-        <v>17.803993660550884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10">
-        <f>D8+ETH!D6</f>
-        <v>35.669672506767277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="E13" s="1">
-        <v>7.7703129100000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="1">
-        <v>4.3419999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1">
-        <v>5.0000008500000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16">
-        <f>SUM(E13:E15)</f>
-        <v>17.112313759999999</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1">
-        <v>17.425503750000001</v>
-      </c>
-      <c r="F17">
-        <f>E17/E16</f>
-        <v>1.0183020247520287</v>
+        <f>D7*1.2</f>
+        <v>26.953837610231997</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>100000</v>
@@ -744,7 +651,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f>ROUNDUP(B1/30,0)</f>
@@ -761,7 +668,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -769,7 +676,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f>ROUND(B2/B3,0)</f>
@@ -778,7 +685,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f>ROUNDUP(24*60/B4,0)</f>
@@ -796,4 +703,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <f>SUM(D:D)</f>
+        <v>45.15</v>
+      </c>
+      <c r="F1">
+        <f>ETH!D7+XRP!D7</f>
+        <v>44.965176991859998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>43694.734027777777</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>43662.48333333333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>43657.21875</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>10.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/server/exmo.xlsx
+++ b/server/exmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" r:id="rId1"/>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/exmo.xlsx
+++ b/server/exmo.xlsx
@@ -11,13 +11,14 @@
     <sheet name="XRP" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Поповнення" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>buy</t>
   </si>
@@ -59,14 +60,26 @@
   </si>
   <si>
     <t>Витрачено</t>
+  </si>
+  <si>
+    <t>UAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,7 +411,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +647,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,10 +723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,50 +736,34 @@
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1">
-        <f>SUM(D:D)</f>
-        <v>45.15</v>
-      </c>
-      <c r="F1">
-        <f>ETH!D7+XRP!D7</f>
-        <v>44.965176991859998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43647</v>
+      </c>
+      <c r="D3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>43694.734027777777</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>43662.48333333333</v>
+        <v>43657.21875</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -772,12 +772,15 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10.15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>43657.21875</v>
+        <v>43662.48333333333</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -786,7 +789,75 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>10.15</v>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>263.16000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43694.734027777777</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="4">
+        <f>SUM(D3:D6)</f>
+        <v>45.15</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E3:E6)</f>
+        <v>790.66000000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E6">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>4100</v>
       </c>
     </row>
   </sheetData>
